--- a/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-3-2.xlsx
+++ b/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-3-2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Perfect minutiae\Normal fingers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danstori\Desktop\Alex Files - Normal fingers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Collected Minutiae" sheetId="1" r:id="rId1"/>
     <sheet name="Final Template" sheetId="3" r:id="rId2"/>
     <sheet name="Support Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,30 +490,30 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:M41"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="1.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.54296875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="1.453125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -553,13 +553,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2">
         <v>91.837000000000003</v>
       </c>
@@ -575,7 +573,7 @@
       </c>
       <c r="I2" t="str">
         <f>IF(B2='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J2" t="str">
         <f>DEC2HEX(C2, 2)</f>
@@ -591,7 +589,7 @@
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(I2,J2,'Support Data'!$C$7,K2,L2,'Support Data'!$C$8)</f>
-        <v>405B00339B00</v>
+        <v>805B00339B00</v>
       </c>
       <c r="P2" s="13" t="str">
         <f>CONCATENATE('Support Data'!D11,'Support Data'!D12,'Support Data'!D13,'Support Data'!D14)</f>
@@ -599,7 +597,7 @@
       </c>
       <c r="Q2" s="14" t="str">
         <f>CONCATENATE(P2,P10,'Support Data'!C17)</f>
-        <v>464D52002032300000000010E0000012C019000C500C5010000105B28405B00339B0080BF001F8C0040B4002A0800405B006D9C00806900641E0080910051100040A500548800807C00649900403F008E1D00409700600700405D00A2A100808300821A0080A9008EFA0040F200ABD300409A00B00F0040E400E25C00408000D11D0080B900D6DA0040D201005C00409200DF1600404B00E72400404C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
+        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
@@ -607,13 +605,11 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3">
         <v>191.02</v>
       </c>
@@ -655,13 +651,11 @@
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4">
         <v>180</v>
       </c>
@@ -677,7 +671,7 @@
       </c>
       <c r="I4" t="str">
         <f>IF(B4='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -693,7 +687,7 @@
       </c>
       <c r="M4" t="str">
         <f>CONCATENATE(I4,J4,'Support Data'!$C$7,K4,L4,'Support Data'!$C$8)</f>
-        <v>40B4002A0800</v>
+        <v>80B4002A0800</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -702,13 +696,11 @@
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5">
         <v>91.837000000000003</v>
       </c>
@@ -724,7 +716,7 @@
       </c>
       <c r="I5" t="str">
         <f>IF(B5='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
@@ -740,7 +732,7 @@
       </c>
       <c r="M5" t="str">
         <f>CONCATENATE(I5,J5,'Support Data'!$C$7,K5,L5,'Support Data'!$C$8)</f>
-        <v>405B006D9C00</v>
+        <v>805B006D9C00</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -749,13 +741,11 @@
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6">
         <v>105.714</v>
       </c>
@@ -790,13 +780,11 @@
         <v>806900641E00</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7">
         <v>145.30600000000001</v>
       </c>
@@ -831,13 +819,11 @@
         <v>809100511000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8">
         <v>165.714</v>
       </c>
@@ -853,7 +839,7 @@
       </c>
       <c r="I8" t="str">
         <f>IF(B8='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
@@ -869,16 +855,14 @@
       </c>
       <c r="M8" t="str">
         <f>CONCATENATE(I8,J8,'Support Data'!$C$7,K8,L8,'Support Data'!$C$8)</f>
-        <v>40A500548800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>80A500548800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="12"/>
       <c r="C9">
         <v>124.898</v>
       </c>
@@ -916,13 +900,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10">
         <v>63.265000000000001</v>
       </c>
@@ -938,7 +920,7 @@
       </c>
       <c r="I10" t="str">
         <f>IF(B10='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
@@ -954,20 +936,18 @@
       </c>
       <c r="M10" t="str">
         <f>CONCATENATE(I10,J10,'Support Data'!$C$7,K10,L10,'Support Data'!$C$8)</f>
-        <v>403F008E1D00</v>
+        <v>803F008E1D00</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>CONCATENATE(M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15,M16,M17,M18,M19,M20,M21,M22,M23,M24,M25,M26,M27,M28,M29,M30,M31,M32,M33,M34,M35,M36,M37,M38,M39,M40,M41,M42,M43,M44,M45,M46,M47,M48,M49,M50,M51,M52,M53,M54,M55,M56,M57,M58,M59,M60,M61,M62,M63,M64,M65,M66,M67,M68,M69,M70,M71,M72,M73,M74,M75,M76,M77,M78,M79,M80,M81,M82,M83,M84,M85,M86,M87,M88,M89,M90,M91,M92,M93,M94,M95,M96,M97,M98,M99,M100,M101,M102,M103,M104,M105,M106,M107,M108,M109,M110,M111,M112,M113,M114,M115,M116,M117,M118,M119,M120,M121,M122,M123,M124,M125,M126,M127,M128,M129,M130,M131,M132,M133,M134,M135,M136,M137,M138,M139,M140,M141,M142,M143,M144,M145,M146,M147,M148,M149,M150)</f>
-        <v>405B00339B0080BF001F8C0040B4002A0800405B006D9C00806900641E0080910051100040A500548800807C00649900403F008E1D00409700600700405D00A2A100808300821A0080A9008EFA0040F200ABD300409A00B00F0040E400E25C00408000D11D0080B900D6DA0040D201005C00409200DF1600404B00E72400404C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A0300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A0300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11">
         <v>151.429</v>
       </c>
@@ -983,7 +963,7 @@
       </c>
       <c r="I11" t="str">
         <f>IF(B11='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
@@ -999,16 +979,14 @@
       </c>
       <c r="M11" t="str">
         <f>CONCATENATE(I11,J11,'Support Data'!$C$7,K11,L11,'Support Data'!$C$8)</f>
-        <v>409700600700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>809700600700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12">
         <v>93.061000000000007</v>
       </c>
@@ -1024,7 +1002,7 @@
       </c>
       <c r="I12" t="str">
         <f>IF(B12='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
@@ -1040,16 +1018,14 @@
       </c>
       <c r="M12" t="str">
         <f>CONCATENATE(I12,J12,'Support Data'!$C$7,K12,L12,'Support Data'!$C$8)</f>
-        <v>405D00A2A100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>805D00A2A100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13">
         <v>131.429</v>
       </c>
@@ -1084,13 +1060,11 @@
         <v>808300821A00</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14">
         <v>169.38800000000001</v>
       </c>
@@ -1125,13 +1099,11 @@
         <v>80A9008EFA00</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15">
         <v>242.041</v>
       </c>
@@ -1147,7 +1119,7 @@
       </c>
       <c r="I15" t="str">
         <f>IF(B15='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
@@ -1163,16 +1135,14 @@
       </c>
       <c r="M15" t="str">
         <f>CONCATENATE(I15,J15,'Support Data'!$C$7,K15,L15,'Support Data'!$C$8)</f>
-        <v>40F200ABD300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>80F200ABD300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16">
         <v>154.69399999999999</v>
       </c>
@@ -1188,7 +1158,7 @@
       </c>
       <c r="I16" t="str">
         <f>IF(B16='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
@@ -1204,16 +1174,14 @@
       </c>
       <c r="M16" t="str">
         <f>CONCATENATE(I16,J16,'Support Data'!$C$7,K16,L16,'Support Data'!$C$8)</f>
-        <v>409A00B00F00</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>809A00B00F00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="12"/>
       <c r="C17">
         <v>228.16300000000001</v>
       </c>
@@ -1229,7 +1197,7 @@
       </c>
       <c r="I17" t="str">
         <f>IF(B17='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
@@ -1245,16 +1213,14 @@
       </c>
       <c r="M17" t="str">
         <f>CONCATENATE(I17,J17,'Support Data'!$C$7,K17,L17,'Support Data'!$C$8)</f>
-        <v>40E400E25C00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80E400E25C00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="12"/>
       <c r="C18">
         <v>128.16300000000001</v>
       </c>
@@ -1270,7 +1236,7 @@
       </c>
       <c r="I18" t="str">
         <f>IF(B18='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
@@ -1286,16 +1252,14 @@
       </c>
       <c r="M18" t="str">
         <f>CONCATENATE(I18,J18,'Support Data'!$C$7,K18,L18,'Support Data'!$C$8)</f>
-        <v>408000D11D00</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>808000D11D00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B19" s="12"/>
       <c r="C19">
         <v>185.30600000000001</v>
       </c>
@@ -1330,13 +1294,11 @@
         <v>80B900D6DA00</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B20" s="12"/>
       <c r="C20">
         <v>210.61199999999999</v>
       </c>
@@ -1352,7 +1314,7 @@
       </c>
       <c r="I20" t="str">
         <f>IF(B20='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
@@ -1368,16 +1330,14 @@
       </c>
       <c r="M20" t="str">
         <f>CONCATENATE(I20,J20,'Support Data'!$C$7,K20,L20,'Support Data'!$C$8)</f>
-        <v>40D201005C00</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80D201005C00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="12"/>
       <c r="C21">
         <v>146.53100000000001</v>
       </c>
@@ -1393,7 +1353,7 @@
       </c>
       <c r="I21" t="str">
         <f>IF(B21='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
@@ -1409,16 +1369,14 @@
       </c>
       <c r="M21" t="str">
         <f>CONCATENATE(I21,J21,'Support Data'!$C$7,K21,L21,'Support Data'!$C$8)</f>
-        <v>409200DF1600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>809200DF1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B22" s="12"/>
       <c r="C22">
         <v>75.102000000000004</v>
       </c>
@@ -1434,7 +1392,7 @@
       </c>
       <c r="I22" t="str">
         <f>IF(B22='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
@@ -1450,16 +1408,14 @@
       </c>
       <c r="M22" t="str">
         <f>CONCATENATE(I22,J22,'Support Data'!$C$7,K22,L22,'Support Data'!$C$8)</f>
-        <v>404B00E72400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>804B00E72400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B23" s="12"/>
       <c r="C23">
         <v>76.734999999999999</v>
       </c>
@@ -1475,7 +1431,7 @@
       </c>
       <c r="I23" t="str">
         <f>IF(B23='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
@@ -1491,16 +1447,14 @@
       </c>
       <c r="M23" t="str">
         <f>CONCATENATE(I23,J23,'Support Data'!$C$7,K23,L23,'Support Data'!$C$8)</f>
-        <v>404C00FB2800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>804C00FB2800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="12"/>
       <c r="C24">
         <v>158.36699999999999</v>
       </c>
@@ -1535,13 +1489,11 @@
         <v>809E00FB9A00</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B25" s="12"/>
       <c r="C25">
         <v>144.49</v>
       </c>
@@ -1576,13 +1528,11 @@
         <v>809001082400</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B26" s="12"/>
       <c r="C26">
         <v>178.77600000000001</v>
       </c>
@@ -1617,13 +1567,11 @@
         <v>80B200FECE00</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="C27">
         <v>187.34700000000001</v>
       </c>
@@ -1658,13 +1606,11 @@
         <v>80BB01158400</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="12"/>
       <c r="C28">
         <v>202.041</v>
       </c>
@@ -1699,13 +1645,11 @@
         <v>80CA01256900</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B29" s="12"/>
       <c r="C29">
         <v>172.65299999999999</v>
       </c>
@@ -1740,13 +1684,11 @@
         <v>80AC01320C00</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30">
         <v>120.408</v>
       </c>
@@ -1781,13 +1723,11 @@
         <v>807801491100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="12"/>
       <c r="C31">
         <v>112.245</v>
       </c>
@@ -1822,13 +1762,11 @@
         <v>8070012D1D00</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B32" s="12"/>
       <c r="C32">
         <v>73.878</v>
       </c>
@@ -1863,13 +1801,11 @@
         <v>804901510300</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B33" s="12"/>
       <c r="C33">
         <v>151.02000000000001</v>
       </c>
@@ -1904,13 +1840,11 @@
         <v>809701451200</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="12"/>
       <c r="C34">
         <v>215.91800000000001</v>
       </c>
@@ -1945,13 +1879,11 @@
         <v>80D701457C00</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="12"/>
       <c r="C35">
         <v>177.959</v>
       </c>
@@ -1986,13 +1918,11 @@
         <v>80B101537C00</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="12"/>
       <c r="C36">
         <v>128.571</v>
       </c>
@@ -2027,13 +1957,11 @@
         <v>808001580600</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B37" s="12"/>
       <c r="C37">
         <v>92.245000000000005</v>
       </c>
@@ -2068,13 +1996,11 @@
         <v>805C015A0700</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="12"/>
       <c r="C38">
         <v>156.73500000000001</v>
       </c>
@@ -2109,13 +2035,11 @@
         <v>809C01650100</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="12"/>
       <c r="C39">
         <v>191.02</v>
       </c>
@@ -2150,13 +2074,11 @@
         <v>80BF0165FD00</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="12"/>
       <c r="C40">
         <v>90.611999999999995</v>
       </c>
@@ -2191,13 +2113,11 @@
         <v>805A016AFE00</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="12"/>
       <c r="C41">
         <v>117.551</v>
       </c>
@@ -2251,17 +2171,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>'Collected Minutiae'!Q2</f>
-        <v>464D52002032300000000010E0000012C019000C500C5010000105B28405B00339B0080BF001F8C0040B4002A0800405B006D9C00806900641E0080910051100040A500548800807C00649900403F008E1D00409700600700405D00A2A100808300821A0080A9008EFA0040F200ABD300409A00B00F0040E400E25C00408000D11D0080B900D6DA0040D201005C00409200DF1600404B00E72400404C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
+        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
       </c>
     </row>
   </sheetData>
@@ -2278,12 +2198,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>9</v>
@@ -2295,7 +2215,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2304,7 +2224,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>15</v>
@@ -2316,7 +2236,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>16</v>
@@ -2328,7 +2248,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -2340,7 +2260,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2348,7 +2268,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -2358,7 +2278,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -2370,7 +2290,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2378,7 +2298,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2386,7 +2306,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
         <v>10</v>
@@ -2398,7 +2318,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -2411,7 +2331,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2421,7 +2341,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2434,7 +2354,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -2447,7 +2367,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2455,17 +2375,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C24" t="str">
         <f>CONCATENATE(C21,C22,0)</f>
         <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>

--- a/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-3-2.xlsx
+++ b/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-3-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danstori\Desktop\Alex Files - Normal fingers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Perfect minutiae\Normal fingers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Collected Minutiae" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,12 +146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,7 +187,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -206,6 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,31 +485,31 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.54296875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="1.453125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="40.7265625" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -553,11 +548,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C2">
         <v>91.837000000000003</v>
       </c>
@@ -591,25 +588,27 @@
         <f>CONCATENATE(I2,J2,'Support Data'!$C$7,K2,L2,'Support Data'!$C$8)</f>
         <v>805B00339B00</v>
       </c>
-      <c r="P2" s="13" t="str">
+      <c r="P2" s="12" t="str">
         <f>CONCATENATE('Support Data'!D11,'Support Data'!D12,'Support Data'!D13,'Support Data'!D14)</f>
         <v>464D52002032300000000010E0000012C019000C500C5010000105B28</v>
       </c>
-      <c r="Q2" s="14" t="str">
+      <c r="Q2" s="13" t="str">
         <f>CONCATENATE(P2,P10,'Support Data'!C17)</f>
-        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0040BF001F8C0040B4002A0800405B006D9C00406900641E0040910051100040A500548800807C00649900403F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0040F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0040D201005C00809200DF1600404B00E72400404C00FB2800409E00FB9A0040900108240040B200FECE0040BB0115840040CA0125690080AC01320C008078014911004070012D1D0080490151030040970145120040D701457C0040B101537C00408001580600405C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C3">
         <v>191.02</v>
       </c>
@@ -625,7 +624,7 @@
       </c>
       <c r="I3" t="str">
         <f>IF(B3='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J41" si="1">DEC2HEX(C3, 2)</f>
@@ -641,21 +640,23 @@
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE(I3,J3,'Support Data'!$C$7,K3,L3,'Support Data'!$C$8)</f>
-        <v>80BF001F8C00</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <v>40BF001F8C00</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C4">
         <v>180</v>
       </c>
@@ -671,7 +672,7 @@
       </c>
       <c r="I4" t="str">
         <f>IF(B4='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -687,20 +688,22 @@
       </c>
       <c r="M4" t="str">
         <f>CONCATENATE(I4,J4,'Support Data'!$C$7,K4,L4,'Support Data'!$C$8)</f>
-        <v>80B4002A0800</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>40B4002A0800</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C5">
         <v>91.837000000000003</v>
       </c>
@@ -716,7 +719,7 @@
       </c>
       <c r="I5" t="str">
         <f>IF(B5='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
@@ -732,20 +735,22 @@
       </c>
       <c r="M5" t="str">
         <f>CONCATENATE(I5,J5,'Support Data'!$C$7,K5,L5,'Support Data'!$C$8)</f>
-        <v>805B006D9C00</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>405B006D9C00</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C6">
         <v>105.714</v>
       </c>
@@ -761,7 +766,7 @@
       </c>
       <c r="I6" t="str">
         <f>IF(B6='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
@@ -777,14 +782,16 @@
       </c>
       <c r="M6" t="str">
         <f>CONCATENATE(I6,J6,'Support Data'!$C$7,K6,L6,'Support Data'!$C$8)</f>
-        <v>806900641E00</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <v>406900641E00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C7">
         <v>145.30600000000001</v>
       </c>
@@ -800,7 +807,7 @@
       </c>
       <c r="I7" t="str">
         <f>IF(B7='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
@@ -816,14 +823,16 @@
       </c>
       <c r="M7" t="str">
         <f>CONCATENATE(I7,J7,'Support Data'!$C$7,K7,L7,'Support Data'!$C$8)</f>
-        <v>809100511000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <v>409100511000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C8">
         <v>165.714</v>
       </c>
@@ -839,7 +848,7 @@
       </c>
       <c r="I8" t="str">
         <f>IF(B8='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
@@ -855,14 +864,16 @@
       </c>
       <c r="M8" t="str">
         <f>CONCATENATE(I8,J8,'Support Data'!$C$7,K8,L8,'Support Data'!$C$8)</f>
-        <v>80A500548800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+        <v>40A500548800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C9">
         <v>124.898</v>
       </c>
@@ -900,11 +911,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C10">
         <v>63.265000000000001</v>
       </c>
@@ -920,7 +933,7 @@
       </c>
       <c r="I10" t="str">
         <f>IF(B10='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
@@ -936,18 +949,20 @@
       </c>
       <c r="M10" t="str">
         <f>CONCATENATE(I10,J10,'Support Data'!$C$7,K10,L10,'Support Data'!$C$8)</f>
-        <v>803F008E1D00</v>
+        <v>403F008E1D00</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>CONCATENATE(M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15,M16,M17,M18,M19,M20,M21,M22,M23,M24,M25,M26,M27,M28,M29,M30,M31,M32,M33,M34,M35,M36,M37,M38,M39,M40,M41,M42,M43,M44,M45,M46,M47,M48,M49,M50,M51,M52,M53,M54,M55,M56,M57,M58,M59,M60,M61,M62,M63,M64,M65,M66,M67,M68,M69,M70,M71,M72,M73,M74,M75,M76,M77,M78,M79,M80,M81,M82,M83,M84,M85,M86,M87,M88,M89,M90,M91,M92,M93,M94,M95,M96,M97,M98,M99,M100,M101,M102,M103,M104,M105,M106,M107,M108,M109,M110,M111,M112,M113,M114,M115,M116,M117,M118,M119,M120,M121,M122,M123,M124,M125,M126,M127,M128,M129,M130,M131,M132,M133,M134,M135,M136,M137,M138,M139,M140,M141,M142,M143,M144,M145,M146,M147,M148,M149,M150)</f>
-        <v>805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A0300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+        <v>805B00339B0040BF001F8C0040B4002A0800405B006D9C00406900641E0040910051100040A500548800807C00649900403F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0040F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0040D201005C00809200DF1600404B00E72400404C00FB2800409E00FB9A0040900108240040B200FECE0040BB0115840040CA0125690080AC01320C008078014911004070012D1D0080490151030040970145120040D701457C0040B101537C00408001580600405C015A0700809C0165010080BF0165FD00805A016AFE008075017A0300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C11">
         <v>151.429</v>
       </c>
@@ -982,11 +997,13 @@
         <v>809700600700</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C12">
         <v>93.061000000000007</v>
       </c>
@@ -1021,11 +1038,13 @@
         <v>805D00A2A100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C13">
         <v>131.429</v>
       </c>
@@ -1060,11 +1079,13 @@
         <v>808300821A00</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C14">
         <v>169.38800000000001</v>
       </c>
@@ -1099,11 +1120,13 @@
         <v>80A9008EFA00</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C15">
         <v>242.041</v>
       </c>
@@ -1119,7 +1142,7 @@
       </c>
       <c r="I15" t="str">
         <f>IF(B15='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
@@ -1135,14 +1158,16 @@
       </c>
       <c r="M15" t="str">
         <f>CONCATENATE(I15,J15,'Support Data'!$C$7,K15,L15,'Support Data'!$C$8)</f>
-        <v>80F200ABD300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+        <v>40F200ABD300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C16">
         <v>154.69399999999999</v>
       </c>
@@ -1177,11 +1202,13 @@
         <v>809A00B00F00</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C17">
         <v>228.16300000000001</v>
       </c>
@@ -1216,11 +1243,13 @@
         <v>80E400E25C00</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C18">
         <v>128.16300000000001</v>
       </c>
@@ -1255,11 +1284,13 @@
         <v>808000D11D00</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C19">
         <v>185.30600000000001</v>
       </c>
@@ -1294,11 +1325,13 @@
         <v>80B900D6DA00</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C20">
         <v>210.61199999999999</v>
       </c>
@@ -1314,7 +1347,7 @@
       </c>
       <c r="I20" t="str">
         <f>IF(B20='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
@@ -1330,14 +1363,16 @@
       </c>
       <c r="M20" t="str">
         <f>CONCATENATE(I20,J20,'Support Data'!$C$7,K20,L20,'Support Data'!$C$8)</f>
-        <v>80D201005C00</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40D201005C00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C21">
         <v>146.53100000000001</v>
       </c>
@@ -1372,11 +1407,13 @@
         <v>809200DF1600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C22">
         <v>75.102000000000004</v>
       </c>
@@ -1392,7 +1429,7 @@
       </c>
       <c r="I22" t="str">
         <f>IF(B22='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
@@ -1408,14 +1445,16 @@
       </c>
       <c r="M22" t="str">
         <f>CONCATENATE(I22,J22,'Support Data'!$C$7,K22,L22,'Support Data'!$C$8)</f>
-        <v>804B00E72400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>404B00E72400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C23">
         <v>76.734999999999999</v>
       </c>
@@ -1431,7 +1470,7 @@
       </c>
       <c r="I23" t="str">
         <f>IF(B23='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
@@ -1447,14 +1486,16 @@
       </c>
       <c r="M23" t="str">
         <f>CONCATENATE(I23,J23,'Support Data'!$C$7,K23,L23,'Support Data'!$C$8)</f>
-        <v>804C00FB2800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>404C00FB2800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C24">
         <v>158.36699999999999</v>
       </c>
@@ -1470,7 +1511,7 @@
       </c>
       <c r="I24" t="str">
         <f>IF(B24='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
@@ -1486,14 +1527,16 @@
       </c>
       <c r="M24" t="str">
         <f>CONCATENATE(I24,J24,'Support Data'!$C$7,K24,L24,'Support Data'!$C$8)</f>
-        <v>809E00FB9A00</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>409E00FB9A00</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C25">
         <v>144.49</v>
       </c>
@@ -1509,7 +1552,7 @@
       </c>
       <c r="I25" t="str">
         <f>IF(B25='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
@@ -1525,14 +1568,16 @@
       </c>
       <c r="M25" t="str">
         <f>CONCATENATE(I25,J25,'Support Data'!$C$7,K25,L25,'Support Data'!$C$8)</f>
-        <v>809001082400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>409001082400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C26">
         <v>178.77600000000001</v>
       </c>
@@ -1548,7 +1593,7 @@
       </c>
       <c r="I26" t="str">
         <f>IF(B26='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
@@ -1564,14 +1609,16 @@
       </c>
       <c r="M26" t="str">
         <f>CONCATENATE(I26,J26,'Support Data'!$C$7,K26,L26,'Support Data'!$C$8)</f>
-        <v>80B200FECE00</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40B200FECE00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C27">
         <v>187.34700000000001</v>
       </c>
@@ -1587,7 +1634,7 @@
       </c>
       <c r="I27" t="str">
         <f>IF(B27='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
@@ -1603,14 +1650,16 @@
       </c>
       <c r="M27" t="str">
         <f>CONCATENATE(I27,J27,'Support Data'!$C$7,K27,L27,'Support Data'!$C$8)</f>
-        <v>80BB01158400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40BB01158400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C28">
         <v>202.041</v>
       </c>
@@ -1626,7 +1675,7 @@
       </c>
       <c r="I28" t="str">
         <f>IF(B28='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
@@ -1642,14 +1691,16 @@
       </c>
       <c r="M28" t="str">
         <f>CONCATENATE(I28,J28,'Support Data'!$C$7,K28,L28,'Support Data'!$C$8)</f>
-        <v>80CA01256900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40CA01256900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C29">
         <v>172.65299999999999</v>
       </c>
@@ -1684,11 +1735,13 @@
         <v>80AC01320C00</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C30">
         <v>120.408</v>
       </c>
@@ -1723,11 +1776,13 @@
         <v>807801491100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C31">
         <v>112.245</v>
       </c>
@@ -1743,7 +1798,7 @@
       </c>
       <c r="I31" t="str">
         <f>IF(B31='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
@@ -1759,14 +1814,16 @@
       </c>
       <c r="M31" t="str">
         <f>CONCATENATE(I31,J31,'Support Data'!$C$7,K31,L31,'Support Data'!$C$8)</f>
-        <v>8070012D1D00</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4070012D1D00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C32">
         <v>73.878</v>
       </c>
@@ -1801,11 +1858,13 @@
         <v>804901510300</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C33">
         <v>151.02000000000001</v>
       </c>
@@ -1821,7 +1880,7 @@
       </c>
       <c r="I33" t="str">
         <f>IF(B33='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
@@ -1837,14 +1896,16 @@
       </c>
       <c r="M33" t="str">
         <f>CONCATENATE(I33,J33,'Support Data'!$C$7,K33,L33,'Support Data'!$C$8)</f>
-        <v>809701451200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>409701451200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C34">
         <v>215.91800000000001</v>
       </c>
@@ -1860,7 +1921,7 @@
       </c>
       <c r="I34" t="str">
         <f>IF(B34='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
@@ -1876,14 +1937,16 @@
       </c>
       <c r="M34" t="str">
         <f>CONCATENATE(I34,J34,'Support Data'!$C$7,K34,L34,'Support Data'!$C$8)</f>
-        <v>80D701457C00</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40D701457C00</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C35">
         <v>177.959</v>
       </c>
@@ -1899,7 +1962,7 @@
       </c>
       <c r="I35" t="str">
         <f>IF(B35='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
@@ -1915,14 +1978,16 @@
       </c>
       <c r="M35" t="str">
         <f>CONCATENATE(I35,J35,'Support Data'!$C$7,K35,L35,'Support Data'!$C$8)</f>
-        <v>80B101537C00</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>40B101537C00</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C36">
         <v>128.571</v>
       </c>
@@ -1938,7 +2003,7 @@
       </c>
       <c r="I36" t="str">
         <f>IF(B36='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
@@ -1954,14 +2019,16 @@
       </c>
       <c r="M36" t="str">
         <f>CONCATENATE(I36,J36,'Support Data'!$C$7,K36,L36,'Support Data'!$C$8)</f>
-        <v>808001580600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>408001580600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C37">
         <v>92.245000000000005</v>
       </c>
@@ -1977,7 +2044,7 @@
       </c>
       <c r="I37" t="str">
         <f>IF(B37='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
@@ -1993,14 +2060,16 @@
       </c>
       <c r="M37" t="str">
         <f>CONCATENATE(I37,J37,'Support Data'!$C$7,K37,L37,'Support Data'!$C$8)</f>
-        <v>805C015A0700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>405C015A0700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C38">
         <v>156.73500000000001</v>
       </c>
@@ -2035,11 +2104,13 @@
         <v>809C01650100</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C39">
         <v>191.02</v>
       </c>
@@ -2074,11 +2145,13 @@
         <v>80BF0165FD00</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C40">
         <v>90.611999999999995</v>
       </c>
@@ -2113,11 +2186,13 @@
         <v>805A016AFE00</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C41">
         <v>117.551</v>
       </c>
@@ -2171,17 +2246,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Collected Minutiae'!Q2</f>
-        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0080BF001F8C0080B4002A0800805B006D9C00806900641E0080910051100080A500548800807C00649900803F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0080F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0080D201005C00809200DF1600804B00E72400804C00FB2800809E00FB9A0080900108240080B200FECE0080BB0115840080CA0125690080AC01320C008078014911008070012D1D0080490151030080970145120080D701457C0080B101537C00808001580600805C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
+        <v>464D52002032300000000010E0000012C019000C500C5010000105B28805B00339B0040BF001F8C0040B4002A0800405B006D9C00406900641E0040910051100040A500548800807C00649900403F008E1D00809700600700805D00A2A100808300821A0080A9008EFA0040F200ABD300809A00B00F0080E400E25C00808000D11D0080B900D6DA0040D201005C00809200DF1600404B00E72400404C00FB2800409E00FB9A0040900108240040B200FECE0040BB0115840040CA0125690080AC01320C008078014911004070012D1D0080490151030040970145120040D701457C0040B101537C00408001580600405C015A0700809C0165010080BF0165FD00805A016AFE008075017A03000000</v>
       </c>
     </row>
   </sheetData>
@@ -2198,24 +2273,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2224,7 +2299,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>15</v>
@@ -2236,7 +2311,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>16</v>
@@ -2248,7 +2323,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -2260,7 +2335,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2268,7 +2343,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -2278,7 +2353,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -2290,7 +2365,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2298,7 +2373,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2306,19 +2381,19 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -2331,7 +2406,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2341,12 +2416,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="str">
         <f>DEC2HEX(COUNT('Collected Minutiae'!A2:A1000), 2)</f>
         <v>28</v>
@@ -2354,7 +2429,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -2367,7 +2442,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2375,17 +2450,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <f>CONCATENATE(C21,C22,0)</f>
         <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>
